--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{578CC802-A952-4F7E-880C-E2F5E0A00A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5404392-0448-454D-AF68-41AA7C5A0F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BCD5475E-8CCC-4F6F-A60A-2311C7C22BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{19842D02-11CC-451F-8C0D-C7B464C765A0}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3D0867-5358-4109-8891-17267B2E2972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC0481-15F0-4B0C-B06A-8493F7F8B279}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5404392-0448-454D-AF68-41AA7C5A0F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D99B5B-0A5F-4B5D-92A5-348812B7F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{19842D02-11CC-451F-8C0D-C7B464C765A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{695D07C8-CACC-43F2-83A8-DAADCEA72A51}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC0481-15F0-4B0C-B06A-8493F7F8B279}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5CCD2B-8F85-4C71-95EE-984133AF4D50}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -547,6 +546,204 @@
         <v>99</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D99B5B-0A5F-4B5D-92A5-348812B7F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9831736-375D-43E2-87ED-46A7A688966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{695D07C8-CACC-43F2-83A8-DAADCEA72A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E387340-3E0D-4304-97C5-55D966504C33}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5CCD2B-8F85-4C71-95EE-984133AF4D50}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847DCB9B-3BA8-4A67-9EDC-CCCF237D7222}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -744,6 +744,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9831736-375D-43E2-87ED-46A7A688966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5221FB3-37CC-4921-BCB6-6FE42CB80972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E387340-3E0D-4304-97C5-55D966504C33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{013B80F1-D7BA-420D-B076-506558651F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847DCB9B-3BA8-4A67-9EDC-CCCF237D7222}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C70DDF9-BCFD-483E-AF6B-63D18520EDFC}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -766,6 +766,17 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5221FB3-37CC-4921-BCB6-6FE42CB80972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{169D8B77-5103-4B24-BC2B-F3F588E97181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{013B80F1-D7BA-420D-B076-506558651F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6BC78CB2-DA2F-4F16-88EA-A291F8FAEB71}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C70DDF9-BCFD-483E-AF6B-63D18520EDFC}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784C7042-072E-4049-8FB2-A64C6E712BBB}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -777,6 +777,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169D8B77-5103-4B24-BC2B-F3F588E97181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F338B60-A10E-48F1-8A1A-510DB92D9A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6BC78CB2-DA2F-4F16-88EA-A291F8FAEB71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5867F366-3F31-491C-817D-C4EFA9FAE3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784C7042-072E-4049-8FB2-A64C6E712BBB}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F199134E-72D2-460D-8CE6-BECD2E2EED16}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -788,6 +788,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F338B60-A10E-48F1-8A1A-510DB92D9A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A862588-6FEB-4BD4-A6D6-3A5E32CD714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5867F366-3F31-491C-817D-C4EFA9FAE3F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9B4322DE-BCF3-49E7-89C3-3E55064F9143}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F199134E-72D2-460D-8CE6-BECD2E2EED16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC2B74-1F93-4841-8B2E-8922B0674AA0}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -452,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A862588-6FEB-4BD4-A6D6-3A5E32CD714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91463D3C-B105-462F-864C-601598772145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9B4322DE-BCF3-49E7-89C3-3E55064F9143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9F9DC8A7-3B3E-4ED4-A846-99864472E24B}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC2B74-1F93-4841-8B2E-8922B0674AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0BF47B-C10D-4EC4-A0A4-8FC1E618B9DE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91463D3C-B105-462F-864C-601598772145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB98A243-B915-4403-848F-7B91F466603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9F9DC8A7-3B3E-4ED4-A846-99864472E24B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A91B90C8-52FD-4818-9C7A-1D9D818E820C}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0BF47B-C10D-4EC4-A0A4-8FC1E618B9DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C0BFBF-5E7B-4519-8AB4-09006A82BD54}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB98A243-B915-4403-848F-7B91F466603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523EF0B3-A70A-455C-A929-AFE483DD7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A91B90C8-52FD-4818-9C7A-1D9D818E820C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8731EB0B-615B-4D47-BAA4-31EF08163441}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C0BFBF-5E7B-4519-8AB4-09006A82BD54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A048D-2225-407F-9EC8-26998BA1836F}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -562,10 +562,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523EF0B3-A70A-455C-A929-AFE483DD7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C150787B-904B-4C5D-B602-F2A907AFC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8731EB0B-615B-4D47-BAA4-31EF08163441}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6A0DE26E-C819-4617-862D-8B21ADAB17CF}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A048D-2225-407F-9EC8-26998BA1836F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BF73EC-DA1F-45BE-BE38-12D15E513C69}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -573,10 +573,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">

--- a/Plan/Table/Live_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Live_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C150787B-904B-4C5D-B602-F2A907AFC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F457F3-1602-4C72-988E-8D2B73F480DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6A0DE26E-C819-4617-862D-8B21ADAB17CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C7FFBB1B-06F0-490B-9084-3259FC346D85}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BF73EC-DA1F-45BE-BE38-12D15E513C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB0D0E-C03C-423E-8A79-345A4392A224}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -595,10 +595,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
